--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hgf-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hgf-Sdc2.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1088396666666667</v>
+        <v>0.002837</v>
       </c>
       <c r="H2">
-        <v>0.326519</v>
+        <v>0.008510999999999999</v>
       </c>
       <c r="I2">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="J2">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N2">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O2">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P2">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q2">
-        <v>0.3327347245236667</v>
+        <v>0.005162934308999999</v>
       </c>
       <c r="R2">
-        <v>2.994612520713</v>
+        <v>0.046466408781</v>
       </c>
       <c r="S2">
-        <v>7.413196445674804E-05</v>
+        <v>1.055800448247855E-06</v>
       </c>
       <c r="T2">
-        <v>7.413196445674805E-05</v>
+        <v>1.055800448247855E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1088396666666667</v>
+        <v>0.002837</v>
       </c>
       <c r="H3">
-        <v>0.326519</v>
+        <v>0.008510999999999999</v>
       </c>
       <c r="I3">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="J3">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>267.08268</v>
       </c>
       <c r="O3">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P3">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q3">
-        <v>9.689729954546666</v>
+        <v>0.25257118772</v>
       </c>
       <c r="R3">
-        <v>87.20756959092</v>
+        <v>2.27314068948</v>
       </c>
       <c r="S3">
-        <v>0.002158833039185388</v>
+        <v>5.164984817730885E-05</v>
       </c>
       <c r="T3">
-        <v>0.002158833039185389</v>
+        <v>5.164984817730886E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1088396666666667</v>
+        <v>0.002837</v>
       </c>
       <c r="H4">
-        <v>0.326519</v>
+        <v>0.008510999999999999</v>
       </c>
       <c r="I4">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="J4">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N4">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O4">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P4">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q4">
-        <v>2.304097359210889</v>
+        <v>0.08944845482566664</v>
       </c>
       <c r="R4">
-        <v>20.736876232898</v>
+        <v>0.8050360934309998</v>
       </c>
       <c r="S4">
-        <v>0.000513343666737613</v>
+        <v>1.829186912864454E-05</v>
       </c>
       <c r="T4">
-        <v>0.000513343666737613</v>
+        <v>1.829186912864454E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1088396666666667</v>
+        <v>0.002837</v>
       </c>
       <c r="H5">
-        <v>0.326519</v>
+        <v>0.008510999999999999</v>
       </c>
       <c r="I5">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="J5">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N5">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O5">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P5">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q5">
-        <v>0.020027042865</v>
+        <v>0.0004154578453333333</v>
       </c>
       <c r="R5">
-        <v>0.180243385785</v>
+        <v>0.003739120608</v>
       </c>
       <c r="S5">
-        <v>4.461944968224529E-06</v>
+        <v>8.495955072803952E-08</v>
       </c>
       <c r="T5">
-        <v>4.461944968224529E-06</v>
+        <v>8.495955072803953E-08</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>45.22258</v>
       </c>
       <c r="I6">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="J6">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N6">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O6">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P6">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q6">
-        <v>46.08345210707333</v>
+        <v>27.43287625702</v>
       </c>
       <c r="R6">
-        <v>414.75106896366</v>
+        <v>246.89588631318</v>
       </c>
       <c r="S6">
-        <v>0.01026720862553923</v>
+        <v>0.005609918956047993</v>
       </c>
       <c r="T6">
-        <v>0.01026720862553923</v>
+        <v>0.005609918956047994</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>45.22258</v>
       </c>
       <c r="I7">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="J7">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>267.08268</v>
       </c>
       <c r="O7">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P7">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q7">
         <v>1342.018651434933</v>
@@ -883,10 +883,10 @@
         <v>12078.1678629144</v>
       </c>
       <c r="S7">
-        <v>0.2989963825112914</v>
+        <v>0.2744377148614973</v>
       </c>
       <c r="T7">
-        <v>0.2989963825112914</v>
+        <v>0.2744377148614974</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>45.22258</v>
       </c>
       <c r="I8">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="J8">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N8">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O8">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P8">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q8">
-        <v>319.1153567011511</v>
+        <v>475.2778644377977</v>
       </c>
       <c r="R8">
-        <v>2872.03821031036</v>
+        <v>4277.500779940179</v>
       </c>
       <c r="S8">
-        <v>0.07109762383363616</v>
+        <v>0.09719251733282318</v>
       </c>
       <c r="T8">
-        <v>0.07109762383363616</v>
+        <v>0.09719251733282318</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>45.22258</v>
       </c>
       <c r="I9">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="J9">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N9">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O9">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P9">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q9">
-        <v>2.773726944299999</v>
+        <v>2.207505069582222</v>
       </c>
       <c r="R9">
-        <v>24.9635424987</v>
+        <v>19.86754562624</v>
       </c>
       <c r="S9">
-        <v>0.0006179752580435786</v>
+        <v>0.0004514263987266861</v>
       </c>
       <c r="T9">
-        <v>0.0006179752580435785</v>
+        <v>0.0004514263987266862</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6906883333333332</v>
+        <v>1.581618666666667</v>
       </c>
       <c r="H10">
-        <v>2.072065</v>
+        <v>4.744856</v>
       </c>
       <c r="I10">
-        <v>0.0174561833004848</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="J10">
-        <v>0.01745618330048481</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N10">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O10">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P10">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q10">
-        <v>2.111509520028333</v>
+        <v>2.878319801864</v>
       </c>
       <c r="R10">
-        <v>19.003585680255</v>
+        <v>25.90487821677601</v>
       </c>
       <c r="S10">
-        <v>0.0004704358672299976</v>
+        <v>0.000588605462539246</v>
       </c>
       <c r="T10">
-        <v>0.0004704358672299977</v>
+        <v>0.0005886054625392461</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6906883333333332</v>
+        <v>1.581618666666667</v>
       </c>
       <c r="H11">
-        <v>2.072065</v>
+        <v>4.744856</v>
       </c>
       <c r="I11">
-        <v>0.0174561833004848</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="J11">
-        <v>0.01745618330048481</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>267.08268</v>
       </c>
       <c r="O11">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P11">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q11">
-        <v>61.49029703713332</v>
+        <v>140.8076507437867</v>
       </c>
       <c r="R11">
-        <v>553.4126733341999</v>
+        <v>1267.26885669408</v>
       </c>
       <c r="S11">
-        <v>0.01369979199170544</v>
+        <v>0.02879462954096968</v>
       </c>
       <c r="T11">
-        <v>0.01369979199170545</v>
+        <v>0.02879462954096969</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6906883333333332</v>
+        <v>1.581618666666667</v>
       </c>
       <c r="H12">
-        <v>2.072065</v>
+        <v>4.744856</v>
       </c>
       <c r="I12">
-        <v>0.0174561833004848</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="J12">
-        <v>0.01745618330048481</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N12">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O12">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P12">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q12">
-        <v>14.62162843391444</v>
+        <v>49.86723505701956</v>
       </c>
       <c r="R12">
-        <v>131.59465590523</v>
+        <v>448.805115513176</v>
       </c>
       <c r="S12">
-        <v>0.003257640274589448</v>
+        <v>0.01019766008533237</v>
       </c>
       <c r="T12">
-        <v>0.003257640274589448</v>
+        <v>0.01019766008533237</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6906883333333332</v>
+        <v>1.581618666666667</v>
       </c>
       <c r="H13">
-        <v>2.072065</v>
+        <v>4.744856</v>
       </c>
       <c r="I13">
-        <v>0.0174561833004848</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="J13">
-        <v>0.01745618330048481</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N13">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O13">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P13">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q13">
-        <v>0.127090106775</v>
+        <v>0.2316164551964444</v>
       </c>
       <c r="R13">
-        <v>1.143810960975</v>
+        <v>2.084548096768</v>
       </c>
       <c r="S13">
-        <v>2.831516695991399E-05</v>
+        <v>4.736468499932355E-05</v>
       </c>
       <c r="T13">
-        <v>2.831516695991399E-05</v>
+        <v>4.736468499932356E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>23.69325166666667</v>
+        <v>23.25273433333334</v>
       </c>
       <c r="H14">
-        <v>71.07975500000001</v>
+        <v>69.75820300000001</v>
       </c>
       <c r="I14">
-        <v>0.5988138558556568</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="J14">
-        <v>0.5988138558556569</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N14">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O14">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P14">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q14">
-        <v>72.43285290943167</v>
+        <v>42.31665134565701</v>
       </c>
       <c r="R14">
-        <v>651.895676184885</v>
+        <v>380.8498621109131</v>
       </c>
       <c r="S14">
-        <v>0.01613774962943767</v>
+        <v>0.008653594406810581</v>
       </c>
       <c r="T14">
-        <v>0.01613774962943767</v>
+        <v>0.008653594406810582</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>23.69325166666667</v>
+        <v>23.25273433333334</v>
       </c>
       <c r="H15">
-        <v>71.07975500000001</v>
+        <v>69.75820300000001</v>
       </c>
       <c r="I15">
-        <v>0.5988138558556568</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="J15">
-        <v>0.5988138558556569</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>267.08268</v>
       </c>
       <c r="O15">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P15">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q15">
-        <v>2109.352384349267</v>
+        <v>2070.134201024894</v>
       </c>
       <c r="R15">
-        <v>18984.1714591434</v>
+        <v>18631.20780922404</v>
       </c>
       <c r="S15">
-        <v>0.469955266037207</v>
+        <v>0.4233345780838787</v>
       </c>
       <c r="T15">
-        <v>0.4699552660372071</v>
+        <v>0.4233345780838788</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>23.69325166666667</v>
+        <v>23.25273433333334</v>
       </c>
       <c r="H16">
-        <v>71.07975500000001</v>
+        <v>69.75820300000001</v>
       </c>
       <c r="I16">
-        <v>0.5988138558556568</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="J16">
-        <v>0.5988138558556569</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N16">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O16">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P16">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q16">
-        <v>501.5777819632456</v>
+        <v>733.1410492028182</v>
       </c>
       <c r="R16">
-        <v>4514.20003766921</v>
+        <v>6598.269442825363</v>
       </c>
       <c r="S16">
-        <v>0.1117495216588045</v>
+        <v>0.1499245587974879</v>
       </c>
       <c r="T16">
-        <v>0.1117495216588045</v>
+        <v>0.1499245587974879</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>23.69325166666667</v>
+        <v>23.25273433333334</v>
       </c>
       <c r="H17">
-        <v>71.07975500000001</v>
+        <v>69.75820300000001</v>
       </c>
       <c r="I17">
-        <v>0.5988138558556568</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="J17">
-        <v>0.5988138558556569</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N17">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O17">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P17">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q17">
-        <v>4.359676772925</v>
+        <v>3.405192423064889</v>
       </c>
       <c r="R17">
-        <v>39.237090956325</v>
+        <v>30.646731807584</v>
       </c>
       <c r="S17">
-        <v>0.0009713185302076826</v>
+        <v>0.0006963489115821149</v>
       </c>
       <c r="T17">
-        <v>0.0009713185302076826</v>
+        <v>0.0006963489115821151</v>
       </c>
     </row>
   </sheetData>
